--- a/Ejes objetivos.xlsx
+++ b/Ejes objetivos.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acisneros\Desktop\pi-pna-consulta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sesnamx-my.sharepoint.com/personal/pvallejos_sesna_gob_mx/Documents/UPPSNA/PI-PNA/Tablero de Implementación/TI-PNA Consulta/2.11/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26310E5F-B805-4C96-A7A4-B6FFB5B1B913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{26310E5F-B805-4C96-A7A4-B6FFB5B1B913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A128876-E32B-4DC1-97DD-A6B4DB727077}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2EAC94EB-FA2B-479D-96F7-528D2C8F957F}"/>
+    <workbookView xWindow="-16320" yWindow="-4875" windowWidth="16440" windowHeight="28320" xr2:uid="{2EAC94EB-FA2B-479D-96F7-528D2C8F957F}"/>
   </bookViews>
   <sheets>
     <sheet name="Compendio" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Compendio!$E$1:$F$141</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Compendio!$A$1:$G$141</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -891,9 +891,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -931,7 +931,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1037,7 +1037,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1179,7 +1179,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1190,8 +1190,8 @@
   <dimension ref="A1:G991"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G86" sqref="G85:G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="20.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8696,6 +8696,7 @@
       <c r="G991" s="22"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G141" xr:uid="{CBC438E6-E064-4E55-B459-D8CD278A61E9}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
